--- a/data.xlsx
+++ b/data.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet sheetId="1" name="Лист1" state="visible" r:id="rId3"/>
+    <sheet sheetId="2" name="Лист2" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="Лист3" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,7 +53,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +351,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -357,6 +357,9 @@
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -358,7 +358,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -357,9 +357,6 @@
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
